--- a/medicine/Sexualité et sexologie/Charles_Pinot_Duclos/Charles_Pinot_Duclos.xlsx
+++ b/medicine/Sexualité et sexologie/Charles_Pinot_Duclos/Charles_Pinot_Duclos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Pinot Duclos né à Dinan, le 12 février 1704 et mort à Paris le 26 mars 1772, est un écrivain et historien français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’un riche chapelier de Dinan, Duclos est destiné à reprendre les affaires de son père mais c’est un enfant doué d’une vive intelligence et d’une grande mémoire et sa mère, devenue veuve, décide de l’envoyer achever ses études à Paris. Il suit d’abord les cours de l’académie que tenait, rue de Charonne, l’abbé de Dangeau, puis du collège d'Harcourt où il entreprend l’étude du droit en vue de devenir avocat. Mais il se laisse aller à la dissipation, s’appliquant surtout à l’étude des armes, avant de décider de se consacrer aux lettres. Il fréquente le café Procope et le café Gradot, où l’on ne tarde pas à le remarquer pour l’agrément et le piquant de sa conversation.
 C’était, dit Jean-Jacques Rousseau, « un homme droit et adroit ». « Il faisait profession, écrit La Harpe, d’une franchise brusque qui ne déplaisait point […] Soit habitude, soit dessein, il gardait ce ton même dans la louange et l’on peut juger qu’elle n’y perdait pas. Il avait d’ailleurs un fonds de droiture qui le rendait incapable de plier son opinion ni sa liberté à aucun intérêt ni aucune politique ; et cependant ce ne fut point un obstacle à son avancement, parce qu’il n’offensa jamais l’amour-propre des gens de lettres, et qu’il sut intéresser en sa faveur celui des gens en place. » Duclos avait beaucoup d’esprit et une grande liberté de parole ; on cite de lui nombre de mots heureux.
@@ -550,13 +564,15 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’œuvre la plus célèbre de Duclos est les Considérations sur les mœurs de ce siècle (1751), qui connut un vif succès et fut traduite en anglais et en allemand et souvent rééditée. Elle est écrite avec un style précis, piquant, clair parfois jusqu’à la sécheresse. La peinture des modes et de l’esprit du temps est assez peu vivante. L’auteur disait d’ailleurs avec justesse : 
 « Je ne regarde pas tout, mais ce que je regarde, je le vois bien ; je n’ai point de coloris, mais je serai lu. »
 Dans cet ouvrage, l’auteur ne parle guère des femmes. Aussi en fit-il le sujet principal d’un autre livre, les Mémoires pour servir à l’histoire des mœurs du XVIIIe siècle (1751), très inférieur en style au précédent.
-Histoire de la baronne de Luz, anecdote du règne de Henri IV, 1741 : récit des aventures d’une femme qui succombe toujours et n’a jamais tort[1].
+Histoire de la baronne de Luz, anecdote du règne de Henri IV, 1741 : récit des aventures d’une femme qui succombe toujours et n’a jamais tort.
 Histoire de Mme de Luz, 1740
 Confessions du comte de ***, 1741. Il dresse la liste de ses conquêtes et lui oppose sa découverte d’un sentiment profond avec Mme de Selve. Roman qui eut un très grand succès ; manquant d’intrigue, c’est avant tout une suite de portraits.
 Les Caractères de la Folie, ballet en 3 actes, 1743
